--- a/ClanCompetitionStatistics/2025/6月-7月繁荣度变化.xlsx
+++ b/ClanCompetitionStatistics/2025/6月-7月繁荣度变化.xlsx
@@ -183,7 +183,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,13 +195,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -675,148 +668,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,7 +1174,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1218,7 +1211,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1241,7 +1234,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1264,7 +1257,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1310,7 +1303,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1333,7 +1326,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1356,7 +1349,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1379,7 +1372,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1402,7 +1395,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1425,7 +1418,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1448,7 +1441,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -1471,7 +1464,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -1494,7 +1487,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1517,7 +1510,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -1540,7 +1533,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -1563,7 +1556,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -1586,7 +1579,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1609,7 +1602,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -1632,7 +1625,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1655,7 +1648,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1678,7 +1671,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -1701,7 +1694,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -1724,7 +1717,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -1747,7 +1740,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -1770,7 +1763,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -1793,7 +1786,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
@@ -1816,7 +1809,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -1839,7 +1832,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -1862,7 +1855,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -1885,7 +1878,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -1908,7 +1901,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -1931,7 +1924,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
@@ -1954,7 +1947,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -1977,7 +1970,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
@@ -2000,7 +1993,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
@@ -2023,7 +2016,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
@@ -2046,7 +2039,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
@@ -2069,7 +2062,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
@@ -2092,7 +2085,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
@@ -2115,7 +2108,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
@@ -2138,7 +2131,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
